--- a/LD_DC/Excel/餐厅就餐明细.xlsx
+++ b/LD_DC/Excel/餐厅就餐明细.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,10 +112,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,38 +401,38 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
